--- a/biology/Zoologie/Asellus_(genre)/Asellus_(genre).xlsx
+++ b/biology/Zoologie/Asellus_(genre)/Asellus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asellus est un genre de Crustacés aquatiques de la famille des Asellidae, comprenant une vingtaine d'espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Asellus, créé en 1762 par le zoologiste français Geoffroy[1]. Arctasellus est un synonyme d’Asellus selon GBIF       (7 mai 2022)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Asellus, créé en 1762 par le zoologiste français Geoffroy. Arctasellus est un synonyme d’Asellus selon GBIF       (7 mai 2022).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon GBIF       (7 mai 2022)[2] :
+Selon GBIF       (7 mai 2022) :
 Asellus alaskensis Bowman &amp; Holmquist, 1975
 Asellus amamiensis Matsumoto, 1961
 Asellus aquaticus (Linnaeus, 1758)
@@ -558,7 +574,7 @@
 Asellus hilgendorfii Bovallius, 1886
 Asellus hyugaensis Matsumoto, 1960
 Asellus incisus Van Name, 1936
-Asellus ismailsezarii Hosseini, 2022[3]
+Asellus ismailsezarii Hosseini, 2022
 Asellus kosswigi Verovnik, Prevorcnik &amp; Jugovic, 2009
 Asellus kumaensis Matsumoto, 1960
 Asellus latifrons Birstein, 1947
